--- a/xlsx/馬德里_intext.xlsx
+++ b/xlsx/馬德里_intext.xlsx
@@ -6597,7 +6597,7 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6626,7 +6626,7 @@
         <v>216</v>
       </c>
       <c r="G111" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -6655,7 +6655,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6684,7 +6684,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6713,7 +6713,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6742,7 +6742,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6771,7 +6771,7 @@
         <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6800,7 +6800,7 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6829,7 +6829,7 @@
         <v>230</v>
       </c>
       <c r="G118" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6858,7 +6858,7 @@
         <v>232</v>
       </c>
       <c r="G119" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6916,7 +6916,7 @@
         <v>236</v>
       </c>
       <c r="G121" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6945,7 +6945,7 @@
         <v>238</v>
       </c>
       <c r="G122" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6974,7 +6974,7 @@
         <v>240</v>
       </c>
       <c r="G123" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -7003,7 +7003,7 @@
         <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7032,7 +7032,7 @@
         <v>244</v>
       </c>
       <c r="G125" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -7061,7 +7061,7 @@
         <v>246</v>
       </c>
       <c r="G126" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -7090,7 +7090,7 @@
         <v>248</v>
       </c>
       <c r="G127" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -7119,7 +7119,7 @@
         <v>250</v>
       </c>
       <c r="G128" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -7148,7 +7148,7 @@
         <v>252</v>
       </c>
       <c r="G129" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -7177,7 +7177,7 @@
         <v>254</v>
       </c>
       <c r="G130" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -16428,7 +16428,7 @@
         <v>844</v>
       </c>
       <c r="G449" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16776,7 +16776,7 @@
         <v>868</v>
       </c>
       <c r="G461" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -16805,7 +16805,7 @@
         <v>870</v>
       </c>
       <c r="G462" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
